--- a/data/code_base.xlsx
+++ b/data/code_base.xlsx
@@ -20,13 +20,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="345">
   <si>
-    <t>BRAND_ACRONYM</t>
-  </si>
-  <si>
-    <t>BRAND</t>
-  </si>
-  <si>
-    <t>BRAND_CODE</t>
+    <t>CLIENT_ACRONYM</t>
+  </si>
+  <si>
+    <t>CLIENT</t>
+  </si>
+  <si>
+    <t>CLIENT_CODE</t>
   </si>
   <si>
     <t>MODEL</t>
